--- a/test/AF4_conf.xlsx
+++ b/test/AF4_conf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTWork\SCRIPTS\ptaf-pro-conf_ansible\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTWork\SCRIPTS\ptaf-pro-conf_ansible-1\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97BDE4F-8C90-42A0-8501-EF5E0046D06A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE9AC96-F677-4C3F-8A4E-23E99C599C71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10185" windowHeight="11745" xr2:uid="{BDDD9177-F6CF-42C1-B99E-562E59E75EA2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="719">
   <si>
     <t>DNS сервера</t>
   </si>
@@ -2140,67 +2140,61 @@
     <t>Отключить принудительно cloud-init?</t>
   </si>
   <si>
-    <t>admin@123</t>
-  </si>
-  <si>
-    <t>192.168.0.171</t>
-  </si>
-  <si>
     <t>255.255.255.0</t>
   </si>
   <si>
-    <t>192.168.0.1</t>
-  </si>
-  <si>
-    <t>172.16.10.10</t>
-  </si>
-  <si>
-    <t>255.255.255.248</t>
-  </si>
-  <si>
-    <t>time.google.com</t>
-  </si>
-  <si>
     <t>8.8.8.8</t>
   </si>
   <si>
-    <t>admin@124</t>
-  </si>
-  <si>
-    <t>admin@125</t>
-  </si>
-  <si>
-    <t>192.168.0.172</t>
-  </si>
-  <si>
-    <t>192.168.0.173</t>
-  </si>
-  <si>
-    <t>172.16.10.11</t>
-  </si>
-  <si>
-    <t>172.16.10.12</t>
-  </si>
-  <si>
-    <t>10.10.10.10</t>
-  </si>
-  <si>
-    <t>ptaf-vm1</t>
-  </si>
-  <si>
-    <t>ptaf-vm2</t>
-  </si>
-  <si>
-    <t>ptaf-vm3</t>
-  </si>
-  <si>
-    <t>ptaf-vm4</t>
-  </si>
-  <si>
-    <t>192.168.0.174</t>
-  </si>
-  <si>
-    <t>172.16.10.13</t>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>192.168.213.40</t>
+  </si>
+  <si>
+    <t>192.168.213.41</t>
+  </si>
+  <si>
+    <t>192.168.213.42</t>
+  </si>
+  <si>
+    <t>192.168.213.43</t>
+  </si>
+  <si>
+    <t>192.168.51.30</t>
+  </si>
+  <si>
+    <t>192.168.51.31</t>
+  </si>
+  <si>
+    <t>192.168.51.32</t>
+  </si>
+  <si>
+    <t>192.168.51.33</t>
+  </si>
+  <si>
+    <t>192.168.51.35</t>
+  </si>
+  <si>
+    <t>192.168.30.1</t>
+  </si>
+  <si>
+    <t>192.168.30.2</t>
+  </si>
+  <si>
+    <t>192.168.51.254</t>
+  </si>
+  <si>
+    <t>wk1</t>
+  </si>
+  <si>
+    <t>bs3</t>
+  </si>
+  <si>
+    <t>bs2</t>
+  </si>
+  <si>
+    <t>bs1</t>
   </si>
 </sst>
 </file>
@@ -2788,7 +2782,7 @@
   <dimension ref="A1:AP594"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,16 +2921,16 @@
         <v>63</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -2967,16 +2961,16 @@
         <v>32</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>715</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>718</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3043,16 +3037,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -3078,16 +3072,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -3112,18 +3106,10 @@
       <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>703</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>703</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>703</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>703</v>
-      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -3150,16 +3136,16 @@
         <v>23</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -3257,16 +3243,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -3292,16 +3278,16 @@
         <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -3326,10 +3312,18 @@
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>714</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -3356,16 +3350,16 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -3432,9 +3426,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="35" t="s">
-        <v>686</v>
-      </c>
+      <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -3461,9 +3453,7 @@
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="34" t="s">
-        <v>714</v>
-      </c>
+      <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
@@ -3490,9 +3480,7 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="34" t="s">
-        <v>702</v>
-      </c>
+      <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -3549,9 +3537,7 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="34" t="s">
-        <v>25</v>
-      </c>
+      <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -3580,9 +3566,7 @@
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="35" t="s">
-        <v>53</v>
-      </c>
+      <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
@@ -3795,16 +3779,16 @@
         <v>696</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
@@ -3847,10 +3831,12 @@
       <c r="B31" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="D31" s="11"/>
+      <c r="C31" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>713</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="AA31" t="s">
         <v>26</v>
@@ -3892,10 +3878,14 @@
         <v>2</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>707</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
+        <v>712</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>701</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>713</v>
+      </c>
       <c r="AA33" t="s">
         <v>46</v>
       </c>
@@ -3913,14 +3903,14 @@
       <c r="B34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>701</v>
+      <c r="C34" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="27" t="str">
         <f>"https://" &amp; C34 &amp; ":3000"</f>
-        <v>https://192.168.0.171:3000</v>
+        <v>https://192.168.51.35:3000</v>
       </c>
       <c r="AA34" t="s">
         <v>25</v>
@@ -3939,13 +3929,13 @@
       <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>701</v>
+      <c r="C35" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="D35" s="10"/>
       <c r="F35" s="27" t="str">
         <f>"https://" &amp;C35</f>
-        <v>https://192.168.0.171</v>
+        <v>https://192.168.51.35</v>
       </c>
       <c r="AP35" s="33" t="s">
         <v>123</v>
@@ -3958,14 +3948,14 @@
       <c r="B36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>701</v>
+      <c r="C36" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="27" t="str">
         <f>"https://" &amp;C36&amp;":8443"</f>
-        <v>https://192.168.0.171:8443</v>
+        <v>https://192.168.51.35:8443</v>
       </c>
       <c r="AA36" t="s">
         <v>53</v>
@@ -3982,7 +3972,7 @@
         <v>75</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="F37" s="28"/>
       <c r="AA37" t="s">
@@ -6831,10 +6821,10 @@
   </sortState>
   <dataConsolidate/>
   <dataValidations count="12">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="IP address" error="Please enter correct IP address" sqref="D33:E33 Y12 Y14 Y6 C26:Y26 Y20 Y8 C20:T20 Y18 C24:Y24 C33:C36 C18:T18 C31:E31 C14:T14 C8:T8 C6:T6 C12:T12" xr:uid="{F4A9DD59-10E1-4570-A620-994D614F80F3}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="IP address" error="Please enter correct IP address" sqref="C33:C36 Y12 Y14 Y6 C26:Y26 Y20 Y8 C20:T20 Y18 C24:Y24 C12:T12 C18:T18 D33:E33 C31:E31 C8:T8 C6:T6 C14:T14" xr:uid="{F4A9DD59-10E1-4570-A620-994D614F80F3}">
       <formula1>AND(LEN(C6)-LEN(SUBSTITUTE(C6,".",""))=3,--LEFT(C6,FIND(".",C6)-1)&lt;224,--LEFT(C6,FIND(".",C6)-1)&gt;0,--MID(SUBSTITUTE(C6,".","    "),6,5)&lt;256,--MID(SUBSTITUTE(C6,".","      "),15,7)&lt;256,--MID(SUBSTITUTE(C6,".","      "),22,10)&lt;256)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Netmask" error="Please enter correct netmask" sqref="Y7 C25:Y25 Y19 Y13 C7:T7 C13:T13 C19:T19" xr:uid="{A53661DA-36E4-4B74-A278-B7516EFEA0F7}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Netmask" error="Please enter correct netmask" sqref="Y7 C25:Y25 Y19 Y13 C13:T13 C19:T19 C7:T7" xr:uid="{A53661DA-36E4-4B74-A278-B7516EFEA0F7}">
       <formula1>AND(LEN(C7)-LEN(SUBSTITUTE(C7,".",""))=3,--LEFT(C7,FIND(".",C7)-1)&lt;256,--LEFT(C7,FIND(".",C7)-1)&gt;0,--MID(SUBSTITUTE(C7,".","    "),6,5)&lt;256,--MID(SUBSTITUTE(C7,".","      "),15,7)&lt;256,--MID(SUBSTITUTE(C7,".","      "),22,10)&lt;256)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9 C27:Y27 Y21 Y15 C21:T21 C15:T15 C9:T9" xr:uid="{DC81CD85-3F94-40CD-B28A-B7045572A454}">
@@ -6868,9 +6858,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{75094916-C9E8-45BD-81BC-515462435568}"/>
-    <hyperlink ref="D3" r:id="rId2" display="admin@123" xr:uid="{00D96852-EA86-4A8C-892C-C5415BB3094A}"/>
-    <hyperlink ref="E3" r:id="rId3" display="admin@123" xr:uid="{134BF09D-7E35-455C-AD34-A4DACF1EE4EE}"/>
-    <hyperlink ref="F3" r:id="rId4" display="admin@123" xr:uid="{7D16BFD8-B112-4D49-A38B-88B2F6E56127}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{420DB803-7658-4EA3-A58E-BF69131BD4DE}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{1FB63386-3CCF-4C1B-9FBF-A58AD806F2D2}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{90DCC992-941E-499A-A3F7-F3BAA7FFE0E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
